--- a/周数据/《个人上线率统计表》-鲁青鹏.xlsx
+++ b/周数据/《个人上线率统计表》-鲁青鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -121,9 +121,6 @@
     <t>TickTakeCoffee</t>
   </si>
   <si>
-    <t>单店</t>
-  </si>
-  <si>
     <t>南京</t>
   </si>
   <si>
@@ -168,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -251,9 +248,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,16 +293,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +340,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -298,58 +355,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -365,24 +371,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,13 +442,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,13 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +544,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,97 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,19 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,6 +927,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -954,60 +1014,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1018,15 +1024,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1035,10 +1032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,137 +1044,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,9 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1696,7 +1690,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:M9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1709,445 +1703,445 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="28" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="27" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="37">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>1</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>0</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39">
         <f>C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41">
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="40">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="e">
+      <c r="I3" s="55"/>
+      <c r="J3" s="56" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="57">
         <f>C3+G3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="58">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="60" t="e">
+      <c r="M3" s="59" t="e">
         <f>L3/K3*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37">
         <v>2</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>0</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39">
         <v>0</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="41">
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="40">
         <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="e">
+      <c r="I4" s="55"/>
+      <c r="J4" s="56" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="57">
         <v>0</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="58">
         <v>0</v>
       </c>
-      <c r="M4" s="60" t="e">
+      <c r="M4" s="59" t="e">
         <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37">
         <v>3</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>0</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39">
         <v>0</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41">
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57" t="e">
+      <c r="I5" s="55"/>
+      <c r="J5" s="56" t="e">
         <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="57">
         <v>0</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="58">
         <v>0</v>
       </c>
-      <c r="M5" s="60" t="e">
+      <c r="M5" s="59" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37">
         <v>4</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>0</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39">
         <v>0</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="41">
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57" t="e">
+      <c r="I6" s="55"/>
+      <c r="J6" s="56" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="57">
         <v>0</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="58">
         <v>0</v>
       </c>
-      <c r="M6" s="60" t="e">
+      <c r="M6" s="59" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37">
         <v>5</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="38">
         <v>0</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39">
         <v>0</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="41">
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57" t="e">
+      <c r="I7" s="55"/>
+      <c r="J7" s="56" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="57">
         <v>0</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="58">
         <v>0</v>
       </c>
-      <c r="M7" s="60" t="e">
+      <c r="M7" s="59" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="47">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62" t="e">
+      <c r="I8" s="60"/>
+      <c r="J8" s="61" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="62">
         <v>0</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="63">
         <v>0</v>
       </c>
-      <c r="M8" s="65" t="e">
+      <c r="M8" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="37">
+      <c r="A9" s="36">
         <v>2</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>9</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="38">
         <v>1</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="39">
         <v>1</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="41">
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57">
+      <c r="I9" s="55"/>
+      <c r="J9" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="57">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="58">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="59">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="41">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57" t="e">
+      <c r="I10" s="55"/>
+      <c r="J10" s="56" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="57">
         <v>1</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="58">
         <v>0</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="41">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57" t="e">
+      <c r="I11" s="55"/>
+      <c r="J11" s="56" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="57">
         <v>0</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="58">
         <v>0</v>
       </c>
-      <c r="M11" s="60" t="e">
+      <c r="M11" s="59" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57" t="e">
+      <c r="I12" s="55"/>
+      <c r="J12" s="56" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="57">
         <v>0</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="58">
         <v>0</v>
       </c>
-      <c r="M12" s="60" t="e">
+      <c r="M12" s="59" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="41">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57" t="e">
-        <f>I13/L13*100%</f>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59">
+      <c r="K13" s="57"/>
+      <c r="L13" s="58">
         <v>0</v>
       </c>
-      <c r="M13" s="60" t="e">
+      <c r="M13" s="59" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="47">
+    <row r="14" ht="14.25" spans="1:13">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62" t="e">
+      <c r="I14" s="60"/>
+      <c r="J14" s="61" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="62">
         <v>0</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="63">
         <v>0</v>
       </c>
-      <c r="M14" s="65" t="e">
+      <c r="M14" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2169,15 +2163,15 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="36.25" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
@@ -2213,7 +2207,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2251,7 +2245,7 @@
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="1">
@@ -2260,33 +2254,33 @@
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="8">
+        <v>13451837737</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="24">
-        <v>13451837737</v>
-      </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="N2" s="8">
+        <v>13770608192</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="N2" s="24">
-        <v>13770608192</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
       <c r="A3" s="8"/>
       <c r="B3" s="19"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
@@ -2300,7 +2294,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8"/>
-      <c r="B4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -2317,7 +2311,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -7355,11 +7349,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F20:F1048576">
-      <formula1>"单店,小连锁,KA项目"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F1048576">
+      <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7396,19 +7390,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8233,7 +8227,7 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -8251,13 +8245,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-鲁青鹏.xlsx
+++ b/周数据/《个人上线率统计表》-鲁青鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="13125" windowHeight="7125" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -165,11 +165,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -242,44 +242,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,7 +280,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,16 +301,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,19 +339,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,29 +372,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,25 +442,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,13 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,13 +526,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,19 +568,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,42 +604,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -870,6 +870,87 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -923,6 +1004,158 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,26 +1199,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,19 +1228,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,10 +1241,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,137 +1253,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1317,10 +1526,43 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1341,31 +1583,88 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1687,10 +1986,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1721,10 +2020,10 @@
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
-      <c r="J1" s="48"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="29"/>
       <c r="L1" s="29"/>
-      <c r="M1" s="49"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
       <c r="A2" s="30" t="s">
@@ -1751,19 +2050,19 @@
       <c r="H2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="65" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1788,20 +2087,20 @@
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56" t="e">
+      <c r="I3" s="66"/>
+      <c r="J3" s="67" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="68">
         <f>C3+G3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="69">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="59" t="e">
+      <c r="M3" s="70" t="e">
         <f>L3/K3*100%</f>
         <v>#DIV/0!</v>
       </c>
@@ -1824,18 +2123,18 @@
         <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56" t="e">
+      <c r="I4" s="66"/>
+      <c r="J4" s="67" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="68">
         <v>0</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="M4" s="59" t="e">
+      <c r="M4" s="70" t="e">
         <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
@@ -1858,18 +2157,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56" t="e">
+      <c r="I5" s="66"/>
+      <c r="J5" s="67" t="e">
         <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="68">
         <v>0</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="69">
         <v>0</v>
       </c>
-      <c r="M5" s="59" t="e">
+      <c r="M5" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1892,18 +2191,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="e">
+      <c r="I6" s="66"/>
+      <c r="J6" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="68">
         <v>0</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="69">
         <v>0</v>
       </c>
-      <c r="M6" s="59" t="e">
+      <c r="M6" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1926,18 +2225,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56" t="e">
+      <c r="I7" s="66"/>
+      <c r="J7" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="68">
         <v>0</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="69">
         <v>0</v>
       </c>
-      <c r="M7" s="59" t="e">
+      <c r="M7" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1954,24 +2253,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61" t="e">
+      <c r="I8" s="71"/>
+      <c r="J8" s="72" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="73">
         <v>0</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="74">
         <v>0</v>
       </c>
-      <c r="M8" s="64" t="e">
+      <c r="M8" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="36">
+      <c r="A9" s="48">
         <v>2</v>
       </c>
       <c r="B9" s="37">
@@ -1990,26 +2289,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56">
+      <c r="I9" s="66"/>
+      <c r="J9" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="68">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="69">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="70">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="36"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
       <c r="D10" s="39"/>
@@ -2020,24 +2319,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56" t="e">
+      <c r="I10" s="66"/>
+      <c r="J10" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="68">
         <v>1</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="69">
         <v>0</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="36"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="37"/>
       <c r="C11" s="38"/>
       <c r="D11" s="39"/>
@@ -2048,24 +2347,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56" t="e">
+      <c r="I11" s="66"/>
+      <c r="J11" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="68">
         <v>0</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="69">
         <v>0</v>
       </c>
-      <c r="M11" s="59" t="e">
+      <c r="M11" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="36"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
@@ -2076,24 +2375,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56" t="e">
+      <c r="I12" s="66"/>
+      <c r="J12" s="67" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="68">
         <v>0</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="69">
         <v>0</v>
       </c>
-      <c r="M12" s="59" t="e">
+      <c r="M12" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="36"/>
+    <row r="13" ht="14.25" spans="1:13">
+      <c r="A13" s="48"/>
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
       <c r="D13" s="39"/>
@@ -2104,53 +2403,146 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56" t="e">
+      <c r="I13" s="66"/>
+      <c r="J13" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58">
+      <c r="K13" s="77"/>
+      <c r="L13" s="78">
         <v>0</v>
       </c>
-      <c r="M13" s="59" t="e">
+      <c r="M13" s="79" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="46">
-        <f t="shared" si="0"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="48">
+        <v>3</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="48"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="48"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="48"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="48"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:13">
+      <c r="A20" s="49"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="46">
+        <f>F20-G20</f>
         <v>0</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61" t="e">
-        <f t="shared" si="2"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92" t="e">
+        <f>I20/L20*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K20" s="93">
         <v>0</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L20" s="93">
         <v>0</v>
       </c>
-      <c r="M14" s="64" t="e">
-        <f t="shared" si="1"/>
+      <c r="M20" s="94" t="e">
+        <f>L20/K20*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2163,8 +2555,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>

--- a/周数据/《个人上线率统计表》-鲁青鹏.xlsx
+++ b/周数据/《个人上线率统计表》-鲁青鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13125" windowHeight="7125" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -136,6 +136,18 @@
     <t>新品牌</t>
   </si>
   <si>
+    <t>3月15</t>
+  </si>
+  <si>
+    <t>SAAS+老板通</t>
+  </si>
+  <si>
+    <t>不二村串串</t>
+  </si>
+  <si>
+    <t>马超亮</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -165,11 +177,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -229,7 +241,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF777777"/>
-      <name val="Tahoma"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -241,8 +253,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,35 +324,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -294,8 +332,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +361,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -323,25 +383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,37 +392,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,13 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,13 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,13 +484,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +538,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +580,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,90 +622,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1020,17 +1032,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -1042,9 +1043,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1055,17 +1054,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1084,7 +1072,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1096,13 +1084,11 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1111,7 +1097,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1121,17 +1109,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,21 +1149,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1192,15 +1165,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1210,17 +1174,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,10 +1214,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1253,16 +1226,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,119 +1244,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,7 +1429,18 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1526,12 +1510,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1619,31 +1597,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1652,10 +1621,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,7 +1633,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1989,7 +1958,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2002,537 +1971,559 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="36">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="41">
         <v>0</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42">
         <f>C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="40">
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="43">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67" t="e">
+      <c r="I3" s="67"/>
+      <c r="J3" s="68" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="68">
+      <c r="K3" s="69">
         <f>C3+G3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="70">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="70" t="e">
+      <c r="M3" s="71" t="e">
         <f>L3/K3*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40">
         <v>2</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="41">
         <v>0</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42">
         <v>0</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="40">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43">
         <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="e">
+      <c r="I4" s="67"/>
+      <c r="J4" s="68" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="69">
         <v>0</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="M4" s="70" t="e">
+      <c r="M4" s="71" t="e">
         <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40">
         <v>3</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="41">
         <v>0</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42">
         <v>0</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67" t="e">
+      <c r="I5" s="67"/>
+      <c r="J5" s="68" t="e">
         <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="69">
         <v>0</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="70">
         <v>0</v>
       </c>
-      <c r="M5" s="70" t="e">
+      <c r="M5" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40">
         <v>4</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="41">
         <v>0</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42">
         <v>0</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40">
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67" t="e">
+      <c r="I6" s="67"/>
+      <c r="J6" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="69">
         <v>0</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="70">
         <v>0</v>
       </c>
-      <c r="M6" s="70" t="e">
+      <c r="M6" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40">
         <v>5</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="41">
         <v>0</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42">
         <v>0</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="40">
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67" t="e">
+      <c r="I7" s="67"/>
+      <c r="J7" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="69">
         <v>0</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="70">
         <v>0</v>
       </c>
-      <c r="M7" s="70" t="e">
+      <c r="M7" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="46">
+    <row r="8" spans="1:13">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72" t="e">
+      <c r="I8" s="72"/>
+      <c r="J8" s="73" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="74">
         <v>0</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="75">
         <v>0</v>
       </c>
-      <c r="M8" s="75" t="e">
+      <c r="M8" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="48">
+      <c r="A9" s="39">
         <v>2</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="40">
         <v>9</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="41">
         <v>1</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="42">
         <v>1</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="40">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67">
+      <c r="I9" s="67"/>
+      <c r="J9" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="69">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="70">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="70">
+      <c r="M9" s="71">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="40">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67" t="e">
+      <c r="I10" s="67"/>
+      <c r="J10" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="69">
         <v>1</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="70">
         <v>0</v>
       </c>
-      <c r="M10" s="70">
-        <f t="shared" si="1"/>
+      <c r="M10" s="71">
+        <f t="shared" ref="M10:M17" si="3">L10/K10*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="40">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67" t="e">
+      <c r="I11" s="67"/>
+      <c r="J11" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="69">
         <v>0</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="70">
         <v>0</v>
       </c>
-      <c r="M11" s="70" t="e">
-        <f t="shared" si="1"/>
+      <c r="M11" s="71" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="48"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="40">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67" t="e">
+      <c r="I12" s="67"/>
+      <c r="J12" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="69">
         <v>0</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="70">
         <v>0</v>
       </c>
-      <c r="M12" s="70" t="e">
-        <f t="shared" si="1"/>
+      <c r="M12" s="71" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="48"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="40">
+    <row r="13" spans="1:13">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="76" t="e">
+      <c r="I13" s="67"/>
+      <c r="J13" s="77" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78">
+      <c r="K13" s="78"/>
+      <c r="L13" s="79">
         <v>0</v>
       </c>
-      <c r="M13" s="79" t="e">
-        <f t="shared" si="1"/>
+      <c r="M13" s="71" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="53"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="45"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="80"/>
       <c r="J14" s="81"/>
       <c r="K14" s="82"/>
       <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
+      <c r="M14" s="71" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="48">
+      <c r="A15" s="39">
         <v>3</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
+      <c r="B15" s="56">
+        <v>11</v>
+      </c>
+      <c r="C15" s="57">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58">
+        <v>1</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85">
+        <v>1</v>
+      </c>
+      <c r="L15" s="85">
+        <v>1</v>
+      </c>
+      <c r="M15" s="71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="48"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="53"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="80"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="71" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="48"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="53"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="71" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="80"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="88"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="48"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="80"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="88"/>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="49"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="46">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="49">
         <f>F20-G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="91"/>
-      <c r="J20" s="92" t="e">
+      <c r="I20" s="89"/>
+      <c r="J20" s="90" t="e">
         <f>I20/L20*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="93">
+      <c r="K20" s="91">
         <v>0</v>
       </c>
-      <c r="L20" s="93">
+      <c r="L20" s="91">
         <v>0</v>
       </c>
-      <c r="M20" s="94" t="e">
+      <c r="M20" s="92" t="e">
         <f>L20/K20*100%</f>
         <v>#DIV/0!</v>
       </c>
@@ -2556,7 +2547,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -2599,7 +2590,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2625,13 +2616,13 @@
       <c r="A2" s="1">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2668,25 +2659,56 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+    <row r="3" spans="1:15">
+      <c r="A3" s="26">
+        <v>11</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>76135817</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="8">
+        <v>13451837738</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="24">
+        <v>18260013799</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -2703,7 +2725,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -7741,11 +7763,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3:O1048576">
-      <formula1>"新品牌,老品牌"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3 O4:O1048576">
+      <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7782,19 +7804,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8637,13 +8659,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-鲁青鹏.xlsx
+++ b/周数据/《个人上线率统计表》-鲁青鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="21840" windowHeight="9334" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -178,12 +178,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,125 +239,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF777777"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,7 +262,98 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,8 +366,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +447,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +513,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +543,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +573,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,109 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,6 +1098,69 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,38 +1183,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,39 +1199,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1214,10 +1207,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,137 +1219,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1430,16 +1423,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1450,10 +1434,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,10 +1521,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,569 +1945,569 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="5.12612612612613" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.12612612612613" style="9" customWidth="1"/>
+    <col min="3" max="4" width="16.2522522522523" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.7477477477477" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.8738738738739" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5045045045045" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8738738738739" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8738738738739" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.8738738738739" style="27" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.8738738738739" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.6216216216216" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="31" t="s">
+    <row r="1" ht="15.75" spans="1:13">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="61"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="58"/>
+    </row>
+    <row r="2" ht="14.85" spans="1:13">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="39">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="37">
         <v>1</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="38">
         <v>0</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39">
         <f>C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="43">
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="40">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68" t="e">
+      <c r="I3" s="64"/>
+      <c r="J3" s="65" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="66">
         <f>C3+G3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="70">
+      <c r="L3" s="67">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="71" t="e">
+      <c r="M3" s="68" t="e">
         <f>L3/K3*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37">
         <v>2</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="38">
         <v>0</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39">
         <v>0</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43">
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="40">
         <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68" t="e">
+      <c r="I4" s="64"/>
+      <c r="J4" s="65" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="66">
         <v>0</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="M4" s="71" t="e">
+      <c r="M4" s="68" t="e">
         <f t="shared" ref="M4:M14" si="1">L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37">
         <v>3</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="38">
         <v>0</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39">
         <v>0</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43">
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68" t="e">
+      <c r="I5" s="64"/>
+      <c r="J5" s="65" t="e">
         <f t="shared" ref="J5:J14" si="2">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="66">
         <v>0</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="M5" s="71" t="e">
+      <c r="M5" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37">
         <v>4</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="38">
         <v>0</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39">
         <v>0</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="43">
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68" t="e">
+      <c r="I6" s="64"/>
+      <c r="J6" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="66">
         <v>0</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="67">
         <v>0</v>
       </c>
-      <c r="M6" s="71" t="e">
+      <c r="M6" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37">
         <v>5</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="38">
         <v>0</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39">
         <v>0</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="43">
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68" t="e">
+      <c r="I7" s="64"/>
+      <c r="J7" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="66">
         <v>0</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="67">
         <v>0</v>
       </c>
-      <c r="M7" s="71" t="e">
+      <c r="M7" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="49">
+    <row r="8" ht="14.85" spans="1:13">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73" t="e">
+      <c r="I8" s="69"/>
+      <c r="J8" s="70" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="71">
         <v>0</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="72">
         <v>0</v>
       </c>
-      <c r="M8" s="76" t="e">
+      <c r="M8" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="39">
+      <c r="A9" s="36">
         <v>2</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="37">
         <v>9</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="38">
         <v>1</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="39">
         <v>1</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="43">
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68">
+      <c r="I9" s="64"/>
+      <c r="J9" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="66">
         <f>C9+G9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L9" s="67">
         <f>D9+G9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="71">
+      <c r="M9" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="43">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68" t="e">
+      <c r="I10" s="64"/>
+      <c r="J10" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="66">
         <v>1</v>
       </c>
-      <c r="L10" s="70">
+      <c r="L10" s="67">
         <v>0</v>
       </c>
-      <c r="M10" s="71">
+      <c r="M10" s="68">
         <f t="shared" ref="M10:M17" si="3">L10/K10*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="43">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68" t="e">
+      <c r="I11" s="64"/>
+      <c r="J11" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="66">
         <v>0</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="67">
         <v>0</v>
       </c>
-      <c r="M11" s="71" t="e">
+      <c r="M11" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="43">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68" t="e">
+      <c r="I12" s="64"/>
+      <c r="J12" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="66">
         <v>0</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="67">
         <v>0</v>
       </c>
-      <c r="M12" s="71" t="e">
+      <c r="M12" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="43">
+    <row r="13" ht="14.85" spans="1:13">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="77" t="e">
+      <c r="I13" s="64"/>
+      <c r="J13" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79">
+      <c r="K13" s="75"/>
+      <c r="L13" s="76">
         <v>0</v>
       </c>
-      <c r="M13" s="71" t="e">
+      <c r="M13" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="45"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="71" t="e">
+    <row r="14" ht="14.85" spans="1:13">
+      <c r="A14" s="42"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="39">
+      <c r="A15" s="36">
         <v>3</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="53">
         <v>11</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="54">
         <v>1</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="55">
         <v>1</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="85">
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="82">
         <v>1</v>
       </c>
-      <c r="L15" s="85">
+      <c r="L15" s="82">
         <v>1</v>
       </c>
-      <c r="M15" s="71">
+      <c r="M15" s="68">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="39"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="71" t="e">
+      <c r="A16" s="36"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="39"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="71" t="e">
+      <c r="A17" s="36"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="68" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="39"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="88"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="39"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="88"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="49">
+      <c r="A19" s="36"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="85"/>
+    </row>
+    <row r="20" ht="14.85" spans="1:13">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="46">
         <f>F20-G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="89"/>
-      <c r="J20" s="90" t="e">
+      <c r="I20" s="86"/>
+      <c r="J20" s="87" t="e">
         <f>I20/L20*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="91">
+      <c r="K20" s="88">
         <v>0</v>
       </c>
-      <c r="L20" s="91">
+      <c r="L20" s="88">
         <v>0</v>
       </c>
-      <c r="M20" s="92" t="e">
+      <c r="M20" s="89" t="e">
         <f>L20/K20*100%</f>
         <v>#DIV/0!</v>
       </c>
@@ -2547,25 +2531,25 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.74774774774775" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="36.25" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="12.8738738738739" customWidth="1"/>
+    <col min="2" max="3" width="11.5045045045045" customWidth="1"/>
+    <col min="4" max="4" width="36.2522522522523" customWidth="1"/>
+    <col min="5" max="5" width="17.2522522522523" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="10.2522522522523" customWidth="1"/>
+    <col min="8" max="8" width="17.1261261261261" customWidth="1"/>
+    <col min="9" max="9" width="9.87387387387387" customWidth="1"/>
+    <col min="10" max="10" width="13.8738738738739" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="27" spans="1:15">
+    <row r="1" s="21" customFormat="1" ht="28.3" spans="1:15">
       <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
@@ -2590,7 +2574,7 @@
       <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -2616,13 +2600,13 @@
       <c r="A2" s="1">
         <v>9</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2660,7 +2644,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="26">
+      <c r="A3" s="24">
         <v>11</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -2669,7 +2653,7 @@
       <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2693,13 +2677,13 @@
       <c r="K3" s="8">
         <v>13451837738</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="8">
         <v>18260013799</v>
       </c>
       <c r="O3" s="8" t="s">
@@ -2708,7 +2692,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -2725,7 +2709,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -7785,18 +7769,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="10.6216216216216" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.5045045045045" customWidth="1"/>
+    <col min="3" max="3" width="12.7477477477477" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.2522522522523" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.5045045045045" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.3783783783784" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="14.15" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -8341,7 +8325,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" ht="14.25" spans="1:7">
+    <row r="60" ht="15" spans="1:7">
       <c r="A60" s="8"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
@@ -8422,7 +8406,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" ht="14.25" spans="1:7">
+    <row r="69" ht="15" spans="1:7">
       <c r="A69" s="8"/>
       <c r="B69" s="15"/>
       <c r="C69" s="20"/>
@@ -8431,7 +8415,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" ht="14.25" spans="1:7">
+    <row r="70" ht="15" spans="1:7">
       <c r="A70" s="8"/>
       <c r="B70" s="15"/>
       <c r="C70" s="16"/>
@@ -8440,7 +8424,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" ht="14.25" spans="1:7">
+    <row r="71" ht="15" spans="1:7">
       <c r="A71" s="8"/>
       <c r="B71" s="15"/>
       <c r="C71" s="16"/>
@@ -8449,7 +8433,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" ht="14.25" spans="1:7">
+    <row r="72" ht="15" spans="1:7">
       <c r="A72" s="8"/>
       <c r="B72" s="15"/>
       <c r="C72" s="16"/>
@@ -8530,7 +8514,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" ht="14.25" spans="1:7">
+    <row r="81" ht="15" spans="1:7">
       <c r="A81" s="8"/>
       <c r="B81" s="15"/>
       <c r="C81" s="16"/>
@@ -8539,7 +8523,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" ht="14.25" spans="1:7">
+    <row r="82" ht="15" spans="1:7">
       <c r="A82" s="8"/>
       <c r="B82" s="15"/>
       <c r="C82" s="16"/>
@@ -8645,16 +8629,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1261261261261" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7477477477477" style="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" ht="14.85" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
